--- a/biology/Botanique/Portrait_de_la_princesse_Maria_Cristina/Portrait_de_la_princesse_Maria_Cristina.xlsx
+++ b/biology/Botanique/Portrait_de_la_princesse_Maria_Cristina/Portrait_de_la_princesse_Maria_Cristina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Portrait de la princesse Maria Cristina est une peinture à l'huile sur toile réalisée par la peintre française Elisabeth Vigée Le Brun, après 1790, et conservée au Musée National de Capodimonte, à Naples.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peinture a été commandée par Ferdinand Ier des Deux-Siciles et Marie-Caroline de Habsbourg-Lorraine, qui décident de confier à l'artiste, échappée de Paris après la Révolution française en 1789, et ayant fui à Naples, les portraits de leurs quatre enfants[1]. La toile est exposée dans la salle 51 du Musée national de Capodimonte, dans les Appartements Royaux du palais royal de Capodimonte.
-Le portrait de la princesse Maria Cristina est figuré dans une atmosphère légère et détendue, en dépit de l'instabilité politique de la fin du XVIIIe siècle : la princesse se présente avec des cheveux au naturel, retenus dans un ruban rouge, vêtue d'une robe simple et modeste, entourée à la taille par un ruban rouge, dans une pose campagnarde, en train de cueillir des roses. Cela donne à la peinture un ton léger et rafraîchissant, évitant le formalisme typique de la cour de Naples[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peinture a été commandée par Ferdinand Ier des Deux-Siciles et Marie-Caroline de Habsbourg-Lorraine, qui décident de confier à l'artiste, échappée de Paris après la Révolution française en 1789, et ayant fui à Naples, les portraits de leurs quatre enfants. La toile est exposée dans la salle 51 du Musée national de Capodimonte, dans les Appartements Royaux du palais royal de Capodimonte.
+Le portrait de la princesse Maria Cristina est figuré dans une atmosphère légère et détendue, en dépit de l'instabilité politique de la fin du XVIIIe siècle : la princesse se présente avec des cheveux au naturel, retenus dans un ruban rouge, vêtue d'une robe simple et modeste, entourée à la taille par un ruban rouge, dans une pose campagnarde, en train de cueillir des roses. Cela donne à la peinture un ton léger et rafraîchissant, évitant le formalisme typique de la cour de Naples.
 </t>
         </is>
       </c>
